--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Cd63</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Cd63</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H2">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I2">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J2">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N2">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O2">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P2">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q2">
-        <v>4.155629440736001</v>
+        <v>10.56282928366056</v>
       </c>
       <c r="R2">
-        <v>37.40066496662401</v>
+        <v>95.065463552945</v>
       </c>
       <c r="S2">
-        <v>0.004310042022812799</v>
+        <v>0.0102524857878095</v>
       </c>
       <c r="T2">
-        <v>0.004310042022812799</v>
+        <v>0.01025248578780949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H3">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I3">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J3">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>575.339554</v>
       </c>
       <c r="O3">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P3">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q3">
-        <v>29.586261224896</v>
+        <v>205.1626968456931</v>
       </c>
       <c r="R3">
-        <v>266.276351024064</v>
+        <v>1846.464271611238</v>
       </c>
       <c r="S3">
-        <v>0.03068561116812043</v>
+        <v>0.1991348697505592</v>
       </c>
       <c r="T3">
-        <v>0.03068561116812043</v>
+        <v>0.1991348697505591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H4">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I4">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J4">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N4">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O4">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P4">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q4">
-        <v>13.62338312496</v>
+        <v>150.1514710531367</v>
       </c>
       <c r="R4">
-        <v>122.61044812464</v>
+        <v>1351.36323947823</v>
       </c>
       <c r="S4">
-        <v>0.01412959326591376</v>
+        <v>0.1457399132041528</v>
       </c>
       <c r="T4">
-        <v>0.01412959326591376</v>
+        <v>0.1457399132041528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H5">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I5">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J5">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N5">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O5">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P5">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q5">
-        <v>26.5545976672</v>
+        <v>190.7830047255088</v>
       </c>
       <c r="R5">
-        <v>238.9913790048</v>
+        <v>1717.047042529579</v>
       </c>
       <c r="S5">
-        <v>0.02754129873145</v>
+        <v>0.1851776632923123</v>
       </c>
       <c r="T5">
-        <v>0.02754129873145001</v>
+        <v>0.1851776632923123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H6">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I6">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J6">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N6">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O6">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P6">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q6">
-        <v>28.81675844987589</v>
+        <v>6.553140191238333</v>
       </c>
       <c r="R6">
-        <v>259.350826048883</v>
+        <v>58.978261721145</v>
       </c>
       <c r="S6">
-        <v>0.02988751563426543</v>
+        <v>0.006360604235090966</v>
       </c>
       <c r="T6">
-        <v>0.02988751563426543</v>
+        <v>0.006360604235090965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H7">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I7">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J7">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>575.339554</v>
       </c>
       <c r="O7">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P7">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q7">
-        <v>205.1626968456931</v>
+        <v>127.2821777515687</v>
       </c>
       <c r="R7">
-        <v>1846.464271611238</v>
+        <v>1145.539599764118</v>
       </c>
       <c r="S7">
-        <v>0.2127860189482943</v>
+        <v>0.1235425361326265</v>
       </c>
       <c r="T7">
-        <v>0.2127860189482943</v>
+        <v>0.1235425361326265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H8">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I8">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J8">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N8">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O8">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P8">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q8">
-        <v>94.46986223886168</v>
+        <v>93.15341688367</v>
       </c>
       <c r="R8">
-        <v>850.2287601497551</v>
+        <v>838.38075195303</v>
       </c>
       <c r="S8">
-        <v>0.09798012116949399</v>
+        <v>0.09041650272271987</v>
       </c>
       <c r="T8">
-        <v>0.09798012116949399</v>
+        <v>0.09041650272271987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H9">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I9">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J9">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N9">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O9">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P9">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q9">
-        <v>184.1399570443444</v>
+        <v>118.3610699839577</v>
       </c>
       <c r="R9">
-        <v>1657.2596133991</v>
+        <v>1065.249629855619</v>
       </c>
       <c r="S9">
-        <v>0.1909821277999958</v>
+        <v>0.1148835369059296</v>
       </c>
       <c r="T9">
-        <v>0.1909821277999958</v>
+        <v>0.1148835369059296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H10">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I10">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J10">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N10">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O10">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P10">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q10">
-        <v>21.23156026603923</v>
+        <v>2.433785963905001</v>
       </c>
       <c r="R10">
-        <v>191.084042394353</v>
+        <v>21.904073675145</v>
       </c>
       <c r="S10">
-        <v>0.02202047084840762</v>
+        <v>0.002362279587733618</v>
       </c>
       <c r="T10">
-        <v>0.02202047084840762</v>
+        <v>0.002362279587733618</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H11">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I11">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J11">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>575.339554</v>
       </c>
       <c r="O11">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P11">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q11">
-        <v>151.1594085087398</v>
+        <v>47.27162377530201</v>
       </c>
       <c r="R11">
-        <v>1360.434676578658</v>
+        <v>425.4446139777181</v>
       </c>
       <c r="S11">
-        <v>0.1567761062691884</v>
+        <v>0.04588274958421035</v>
       </c>
       <c r="T11">
-        <v>0.1567761062691884</v>
+        <v>0.04588274958421035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H12">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I12">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J12">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N12">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O12">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P12">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q12">
-        <v>69.60333782641169</v>
+        <v>34.59646396767</v>
       </c>
       <c r="R12">
-        <v>626.4300404377052</v>
+        <v>311.3681757090301</v>
       </c>
       <c r="S12">
-        <v>0.07218962018585047</v>
+        <v>0.03357999505735443</v>
       </c>
       <c r="T12">
-        <v>0.07218962018585047</v>
+        <v>0.03357999505735442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H13">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I13">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J13">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N13">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O13">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P13">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q13">
-        <v>135.6703115020111</v>
+        <v>43.95839283049101</v>
       </c>
       <c r="R13">
-        <v>1221.0328035181</v>
+        <v>395.6255354744191</v>
       </c>
       <c r="S13">
-        <v>0.1407114739562069</v>
+        <v>0.042666863739501</v>
       </c>
       <c r="T13">
-        <v>0.140711473956207</v>
+        <v>0.04266686373950099</v>
       </c>
     </row>
   </sheetData>
